--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Col4a5-Cd93.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Col4a5-Cd93.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Cd93</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>M1</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>3.55786835750407</v>
+        <v>0.126664</v>
       </c>
       <c r="H2">
-        <v>3.55786835750407</v>
+        <v>0.379992</v>
       </c>
       <c r="I2">
-        <v>0.8253007482432196</v>
+        <v>0.02685339687075019</v>
       </c>
       <c r="J2">
-        <v>0.8253007482432196</v>
+        <v>0.02685339687075019</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>225.28833534577</v>
+        <v>229.5846506666667</v>
       </c>
       <c r="N2">
-        <v>225.28833534577</v>
+        <v>688.753952</v>
       </c>
       <c r="O2">
-        <v>0.5048877881287825</v>
+        <v>0.5033187360873315</v>
       </c>
       <c r="P2">
-        <v>0.5048877881287825</v>
+        <v>0.5033187360873315</v>
       </c>
       <c r="Q2">
-        <v>801.5462396414808</v>
+        <v>29.08011019204267</v>
       </c>
       <c r="R2">
-        <v>801.5462396414808</v>
+        <v>261.720991728384</v>
       </c>
       <c r="S2">
-        <v>0.4166842693215484</v>
+        <v>0.01351581777263749</v>
       </c>
       <c r="T2">
-        <v>0.4166842693215484</v>
+        <v>0.01351581777263748</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>25</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>3.55786835750407</v>
+        <v>0.126664</v>
       </c>
       <c r="H3">
-        <v>3.55786835750407</v>
+        <v>0.379992</v>
       </c>
       <c r="I3">
-        <v>0.8253007482432196</v>
+        <v>0.02685339687075019</v>
       </c>
       <c r="J3">
-        <v>0.8253007482432196</v>
+        <v>0.02685339687075019</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>135.424360218908</v>
+        <v>135.7283196666666</v>
       </c>
       <c r="N3">
-        <v>135.424360218908</v>
+        <v>407.1849589999999</v>
       </c>
       <c r="O3">
-        <v>0.3034959869748256</v>
+        <v>0.2975573763642838</v>
       </c>
       <c r="P3">
-        <v>0.3034959869748256</v>
+        <v>0.2975573763642838</v>
       </c>
       <c r="Q3">
-        <v>481.8220460580857</v>
+        <v>17.19189188225866</v>
       </c>
       <c r="R3">
-        <v>481.8220460580857</v>
+        <v>154.727026940328</v>
       </c>
       <c r="S3">
-        <v>0.250475465139138</v>
+        <v>0.007990426319329294</v>
       </c>
       <c r="T3">
-        <v>0.250475465139138</v>
+        <v>0.007990426319329292</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>3.55786835750407</v>
+        <v>0.126664</v>
       </c>
       <c r="H4">
-        <v>3.55786835750407</v>
+        <v>0.379992</v>
       </c>
       <c r="I4">
-        <v>0.8253007482432196</v>
+        <v>0.02685339687075019</v>
       </c>
       <c r="J4">
-        <v>0.8253007482432196</v>
+        <v>0.02685339687075019</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>84.9189524610866</v>
+        <v>90.23148833333335</v>
       </c>
       <c r="N4">
-        <v>84.9189524610866</v>
+        <v>270.694465</v>
       </c>
       <c r="O4">
-        <v>0.1903096403659243</v>
+        <v>0.1978146123067711</v>
       </c>
       <c r="P4">
-        <v>0.1903096403659243</v>
+        <v>0.1978146123067711</v>
       </c>
       <c r="Q4">
-        <v>302.1304539136924</v>
+        <v>11.42908123825334</v>
       </c>
       <c r="R4">
-        <v>302.1304539136924</v>
+        <v>102.86173114428</v>
       </c>
       <c r="S4">
-        <v>0.1570626885918954</v>
+        <v>0.005311994291107308</v>
       </c>
       <c r="T4">
-        <v>0.1570626885918954</v>
+        <v>0.005311994291107307</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>3.55786835750407</v>
+        <v>0.126664</v>
       </c>
       <c r="H5">
-        <v>3.55786835750407</v>
+        <v>0.379992</v>
       </c>
       <c r="I5">
-        <v>0.8253007482432196</v>
+        <v>0.02685339687075019</v>
       </c>
       <c r="J5">
-        <v>0.8253007482432196</v>
+        <v>0.02685339687075019</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.583017178823954</v>
+        <v>0.5972149999999999</v>
       </c>
       <c r="N5">
-        <v>0.583017178823954</v>
+        <v>1.791645</v>
       </c>
       <c r="O5">
-        <v>0.001306584530467284</v>
+        <v>0.001309275241613694</v>
       </c>
       <c r="P5">
-        <v>0.001306584530467284</v>
+        <v>0.001309275241613694</v>
       </c>
       <c r="Q5">
-        <v>2.074298372419038</v>
+        <v>0.07564564075999999</v>
       </c>
       <c r="R5">
-        <v>2.074298372419038</v>
+        <v>0.68081076684</v>
       </c>
       <c r="S5">
-        <v>0.001078325190637666</v>
+        <v>3.515848767609988E-05</v>
       </c>
       <c r="T5">
-        <v>0.001078325190637666</v>
+        <v>3.515848767609988E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.753127803686312</v>
+        <v>3.579479333333333</v>
       </c>
       <c r="H6">
-        <v>0.753127803686312</v>
+        <v>10.738438</v>
       </c>
       <c r="I6">
-        <v>0.1746992517567803</v>
+        <v>0.758867390329125</v>
       </c>
       <c r="J6">
-        <v>0.1746992517567803</v>
+        <v>0.758867390329125</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>225.28833534577</v>
+        <v>229.5846506666667</v>
       </c>
       <c r="N6">
-        <v>225.28833534577</v>
+        <v>688.753952</v>
       </c>
       <c r="O6">
-        <v>0.5048877881287825</v>
+        <v>0.5033187360873315</v>
       </c>
       <c r="P6">
-        <v>0.5048877881287825</v>
+        <v>0.5033187360873315</v>
       </c>
       <c r="Q6">
-        <v>169.6709091951051</v>
+        <v>821.7935123118862</v>
       </c>
       <c r="R6">
-        <v>169.6709091951051</v>
+        <v>7396.141610806975</v>
       </c>
       <c r="S6">
-        <v>0.08820351880723414</v>
+        <v>0.3819521757583468</v>
       </c>
       <c r="T6">
-        <v>0.08820351880723414</v>
+        <v>0.3819521757583468</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.753127803686312</v>
+        <v>3.579479333333333</v>
       </c>
       <c r="H7">
-        <v>0.753127803686312</v>
+        <v>10.738438</v>
       </c>
       <c r="I7">
-        <v>0.1746992517567803</v>
+        <v>0.758867390329125</v>
       </c>
       <c r="J7">
-        <v>0.1746992517567803</v>
+        <v>0.758867390329125</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>135.424360218908</v>
+        <v>135.7283196666666</v>
       </c>
       <c r="N7">
-        <v>135.424360218908</v>
+        <v>407.1849589999999</v>
       </c>
       <c r="O7">
-        <v>0.3034959869748256</v>
+        <v>0.2975573763642838</v>
       </c>
       <c r="P7">
-        <v>0.3034959869748256</v>
+        <v>0.2975573763642838</v>
       </c>
       <c r="Q7">
-        <v>101.9918509772901</v>
+        <v>485.8367151948934</v>
       </c>
       <c r="R7">
-        <v>101.9918509772901</v>
+        <v>4372.530436754041</v>
       </c>
       <c r="S7">
-        <v>0.05302052183568758</v>
+        <v>0.2258065896747453</v>
       </c>
       <c r="T7">
-        <v>0.05302052183568758</v>
+        <v>0.2258065896747453</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>26</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.753127803686312</v>
+        <v>3.579479333333333</v>
       </c>
       <c r="H8">
-        <v>0.753127803686312</v>
+        <v>10.738438</v>
       </c>
       <c r="I8">
-        <v>0.1746992517567803</v>
+        <v>0.758867390329125</v>
       </c>
       <c r="J8">
-        <v>0.1746992517567803</v>
+        <v>0.758867390329125</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>84.9189524610866</v>
+        <v>90.23148833333335</v>
       </c>
       <c r="N8">
-        <v>84.9189524610866</v>
+        <v>270.694465</v>
       </c>
       <c r="O8">
-        <v>0.1903096403659243</v>
+        <v>0.1978146123067711</v>
       </c>
       <c r="P8">
-        <v>0.1903096403659243</v>
+        <v>0.1978146123067711</v>
       </c>
       <c r="Q8">
-        <v>63.95482415836049</v>
+        <v>322.9817477050744</v>
       </c>
       <c r="R8">
-        <v>63.95482415836049</v>
+        <v>2906.83572934567</v>
       </c>
       <c r="S8">
-        <v>0.03324695177402893</v>
+        <v>0.150115058610207</v>
       </c>
       <c r="T8">
-        <v>0.03324695177402893</v>
+        <v>0.150115058610207</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,309 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>3.579479333333333</v>
+      </c>
+      <c r="H9">
+        <v>10.738438</v>
+      </c>
+      <c r="I9">
+        <v>0.758867390329125</v>
+      </c>
+      <c r="J9">
+        <v>0.758867390329125</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.5972149999999999</v>
+      </c>
+      <c r="N9">
+        <v>1.791645</v>
+      </c>
+      <c r="O9">
+        <v>0.001309275241613694</v>
+      </c>
+      <c r="P9">
+        <v>0.001309275241613694</v>
+      </c>
+      <c r="Q9">
+        <v>2.137718750056666</v>
+      </c>
+      <c r="R9">
+        <v>19.23946875051</v>
+      </c>
+      <c r="S9">
+        <v>0.0009935662858259189</v>
+      </c>
+      <c r="T9">
+        <v>0.0009935662858259189</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.753127803686312</v>
-      </c>
-      <c r="H9">
-        <v>0.753127803686312</v>
-      </c>
-      <c r="I9">
-        <v>0.1746992517567803</v>
-      </c>
-      <c r="J9">
-        <v>0.1746992517567803</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.583017178823954</v>
-      </c>
-      <c r="N9">
-        <v>0.583017178823954</v>
-      </c>
-      <c r="O9">
-        <v>0.001306584530467284</v>
-      </c>
-      <c r="P9">
-        <v>0.001306584530467284</v>
-      </c>
-      <c r="Q9">
-        <v>0.4390864473990743</v>
-      </c>
-      <c r="R9">
-        <v>0.4390864473990743</v>
-      </c>
-      <c r="S9">
-        <v>0.0002282593398296187</v>
-      </c>
-      <c r="T9">
-        <v>0.0002282593398296187</v>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.010727333333333</v>
+      </c>
+      <c r="H10">
+        <v>3.032182</v>
+      </c>
+      <c r="I10">
+        <v>0.2142792128001249</v>
+      </c>
+      <c r="J10">
+        <v>0.2142792128001248</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>229.5846506666667</v>
+      </c>
+      <c r="N10">
+        <v>688.753952</v>
+      </c>
+      <c r="O10">
+        <v>0.5033187360873315</v>
+      </c>
+      <c r="P10">
+        <v>0.5033187360873315</v>
+      </c>
+      <c r="Q10">
+        <v>232.0474817425849</v>
+      </c>
+      <c r="R10">
+        <v>2088.427335683264</v>
+      </c>
+      <c r="S10">
+        <v>0.1078507425563472</v>
+      </c>
+      <c r="T10">
+        <v>0.1078507425563472</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.010727333333333</v>
+      </c>
+      <c r="H11">
+        <v>3.032182</v>
+      </c>
+      <c r="I11">
+        <v>0.2142792128001249</v>
+      </c>
+      <c r="J11">
+        <v>0.2142792128001248</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>135.7283196666666</v>
+      </c>
+      <c r="N11">
+        <v>407.1849589999999</v>
+      </c>
+      <c r="O11">
+        <v>0.2975573763642838</v>
+      </c>
+      <c r="P11">
+        <v>0.2975573763642838</v>
+      </c>
+      <c r="Q11">
+        <v>137.1843225945042</v>
+      </c>
+      <c r="R11">
+        <v>1234.658903350538</v>
+      </c>
+      <c r="S11">
+        <v>0.0637603603702092</v>
+      </c>
+      <c r="T11">
+        <v>0.06376036037020918</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1.010727333333333</v>
+      </c>
+      <c r="H12">
+        <v>3.032182</v>
+      </c>
+      <c r="I12">
+        <v>0.2142792128001249</v>
+      </c>
+      <c r="J12">
+        <v>0.2142792128001248</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>90.23148833333335</v>
+      </c>
+      <c r="N12">
+        <v>270.694465</v>
+      </c>
+      <c r="O12">
+        <v>0.1978146123067711</v>
+      </c>
+      <c r="P12">
+        <v>0.1978146123067711</v>
+      </c>
+      <c r="Q12">
+        <v>91.19943158584779</v>
+      </c>
+      <c r="R12">
+        <v>820.79488427263</v>
+      </c>
+      <c r="S12">
+        <v>0.04238755940545679</v>
+      </c>
+      <c r="T12">
+        <v>0.04238755940545678</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.010727333333333</v>
+      </c>
+      <c r="H13">
+        <v>3.032182</v>
+      </c>
+      <c r="I13">
+        <v>0.2142792128001249</v>
+      </c>
+      <c r="J13">
+        <v>0.2142792128001248</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.5972149999999999</v>
+      </c>
+      <c r="N13">
+        <v>1.791645</v>
+      </c>
+      <c r="O13">
+        <v>0.001309275241613694</v>
+      </c>
+      <c r="P13">
+        <v>0.001309275241613694</v>
+      </c>
+      <c r="Q13">
+        <v>0.6036215243766666</v>
+      </c>
+      <c r="R13">
+        <v>5.432593719389999</v>
+      </c>
+      <c r="S13">
+        <v>0.0002805504681116757</v>
+      </c>
+      <c r="T13">
+        <v>0.0002805504681116757</v>
       </c>
     </row>
   </sheetData>
